--- a/Unity/Assets/Config/Excel/Data/__tables__.xlsx
+++ b/Unity/Assets/Config/Excel/Data/__tables__.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="67">
   <si>
     <t>##var</t>
   </si>
@@ -215,15 +215,6 @@
   </si>
   <si>
     <t>ParticleConfig.xlsx</t>
-  </si>
-  <si>
-    <t>MapConfigCategory</t>
-  </si>
-  <si>
-    <t>MapConfig</t>
-  </si>
-  <si>
-    <t>MapConfig.xlsx</t>
   </si>
 </sst>
 </file>
@@ -1186,10 +1177,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K984"/>
+  <dimension ref="A1:K983"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -1463,7 +1454,7 @@
         <v>44</v>
       </c>
       <c r="D10" s="4" t="b">
-        <f t="shared" ref="D10:D52" si="2">IF(C10&lt;&gt;"",TRUE,"")</f>
+        <f>IF(C10&lt;&gt;"",TRUE,"")</f>
         <v>1</v>
       </c>
       <c r="E10" s="4" t="s">
@@ -1475,7 +1466,7 @@
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
       <c r="K10" s="4" t="str">
-        <f t="shared" ref="K10:K52" si="3">IF(B10&lt;&gt;"",B10,"")</f>
+        <f>IF(B10&lt;&gt;"",B10,"")</f>
         <v>HeroConfigCategory</v>
       </c>
     </row>
@@ -1499,7 +1490,7 @@
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
       <c r="K11" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(B11&lt;&gt;"",B11,"")</f>
         <v>CastConfigCategory</v>
       </c>
     </row>
@@ -1512,7 +1503,7 @@
         <v>50</v>
       </c>
       <c r="D12" s="4" t="b">
-        <f t="shared" si="2"/>
+        <f>IF(C12&lt;&gt;"",TRUE,"")</f>
         <v>1</v>
       </c>
       <c r="E12" s="4" t="s">
@@ -1524,7 +1515,7 @@
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
       <c r="K12" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(B12&lt;&gt;"",B12,"")</f>
         <v>ActionsConfigCategory</v>
       </c>
     </row>
@@ -1537,7 +1528,7 @@
         <v>53</v>
       </c>
       <c r="D13" s="4" t="b">
-        <f t="shared" si="2"/>
+        <f>IF(C13&lt;&gt;"",TRUE,"")</f>
         <v>1</v>
       </c>
       <c r="E13" s="4" t="s">
@@ -1549,7 +1540,7 @@
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
       <c r="K13" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(B13&lt;&gt;"",B13,"")</f>
         <v>BuffConfigCategory</v>
       </c>
     </row>
@@ -1562,7 +1553,7 @@
         <v>56</v>
       </c>
       <c r="D14" s="4" t="b">
-        <f t="shared" si="2"/>
+        <f>IF(C14&lt;&gt;"",TRUE,"")</f>
         <v>1</v>
       </c>
       <c r="E14" s="4" t="s">
@@ -1586,7 +1577,7 @@
         <v>59</v>
       </c>
       <c r="D15" s="4" t="b">
-        <f t="shared" si="2"/>
+        <f>IF(C15&lt;&gt;"",TRUE,"")</f>
         <v>1</v>
       </c>
       <c r="E15" s="4" t="s">
@@ -1598,7 +1589,7 @@
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
       <c r="K15" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(B15&lt;&gt;"",B15,"")</f>
         <v>MonsterConfigCategory</v>
       </c>
     </row>
@@ -1611,7 +1602,7 @@
         <v>62</v>
       </c>
       <c r="D16" s="4" t="b">
-        <f t="shared" si="2"/>
+        <f>IF(C16&lt;&gt;"",TRUE,"")</f>
         <v>1</v>
       </c>
       <c r="E16" s="4" t="s">
@@ -1623,7 +1614,7 @@
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
       <c r="K16" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(B16&lt;&gt;"",B16,"")</f>
         <v>MonsterGroupConfigCategory</v>
       </c>
     </row>
@@ -1636,7 +1627,7 @@
         <v>65</v>
       </c>
       <c r="D17" s="4" t="b">
-        <f t="shared" si="2"/>
+        <f>IF(C17&lt;&gt;"",TRUE,"")</f>
         <v>1</v>
       </c>
       <c r="E17" s="4" t="s">
@@ -1648,44 +1639,41 @@
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
       <c r="K17" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(B17&lt;&gt;"",B17,"")</f>
         <v>ParticleConfigCategory</v>
       </c>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="4"/>
-      <c r="B18" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="D18" s="4" t="b">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>69</v>
-      </c>
+      <c r="B18" s="4" t="str">
+        <f t="shared" ref="B18:B52" si="2">IF(C18&lt;&gt;"",_xlfn.CONCAT(C18,"Category"),"")</f>
+        <v/>
+      </c>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4" t="str">
+        <f t="shared" ref="D18:D51" si="3">IF(C18&lt;&gt;"",TRUE,"")</f>
+        <v/>
+      </c>
+      <c r="E18" s="4"/>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
       <c r="K18" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>MapConfigCategory</v>
+        <f t="shared" ref="K18:K51" si="4">IF(B18&lt;&gt;"",B18,"")</f>
+        <v/>
       </c>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="4"/>
       <c r="B19" s="4" t="str">
-        <f t="shared" ref="B10:B53" si="4">IF(C19&lt;&gt;"",_xlfn.CONCAT(C19,"Category"),"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E19" s="4"/>
@@ -1695,19 +1683,19 @@
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
       <c r="K19" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="4"/>
       <c r="B20" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E20" s="4"/>
@@ -1717,19 +1705,19 @@
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
       <c r="K20" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="4"/>
       <c r="B21" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E21" s="4"/>
@@ -1739,19 +1727,19 @@
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
       <c r="K21" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="4"/>
       <c r="B22" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E22" s="4"/>
@@ -1761,19 +1749,19 @@
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
       <c r="K22" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="4"/>
       <c r="B23" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E23" s="4"/>
@@ -1783,19 +1771,19 @@
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
       <c r="K23" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="4"/>
       <c r="B24" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E24" s="4"/>
@@ -1805,19 +1793,19 @@
       <c r="I24" s="4"/>
       <c r="J24" s="4"/>
       <c r="K24" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="4"/>
       <c r="B25" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E25" s="4"/>
@@ -1827,19 +1815,19 @@
       <c r="I25" s="4"/>
       <c r="J25" s="4"/>
       <c r="K25" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="26" spans="1:11">
       <c r="A26" s="4"/>
       <c r="B26" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="C26" s="4"/>
       <c r="D26" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E26" s="4"/>
@@ -1849,19 +1837,19 @@
       <c r="I26" s="4"/>
       <c r="J26" s="4"/>
       <c r="K26" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="27" spans="1:11">
       <c r="A27" s="4"/>
       <c r="B27" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E27" s="4"/>
@@ -1871,19 +1859,19 @@
       <c r="I27" s="4"/>
       <c r="J27" s="4"/>
       <c r="K27" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="28" spans="1:11">
       <c r="A28" s="4"/>
       <c r="B28" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="C28" s="4"/>
       <c r="D28" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E28" s="4"/>
@@ -1893,19 +1881,19 @@
       <c r="I28" s="4"/>
       <c r="J28" s="4"/>
       <c r="K28" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="29" spans="1:11">
       <c r="A29" s="4"/>
       <c r="B29" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="C29" s="4"/>
       <c r="D29" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E29" s="4"/>
@@ -1915,19 +1903,19 @@
       <c r="I29" s="4"/>
       <c r="J29" s="4"/>
       <c r="K29" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="30" spans="1:11">
       <c r="A30" s="4"/>
       <c r="B30" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="C30" s="4"/>
       <c r="D30" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E30" s="4"/>
@@ -1937,19 +1925,19 @@
       <c r="I30" s="4"/>
       <c r="J30" s="4"/>
       <c r="K30" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="31" spans="1:11">
       <c r="A31" s="4"/>
       <c r="B31" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="C31" s="4"/>
       <c r="D31" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E31" s="4"/>
@@ -1959,19 +1947,19 @@
       <c r="I31" s="4"/>
       <c r="J31" s="4"/>
       <c r="K31" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="32" spans="1:11">
       <c r="A32" s="4"/>
       <c r="B32" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="C32" s="4"/>
       <c r="D32" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E32" s="4"/>
@@ -1981,19 +1969,19 @@
       <c r="I32" s="4"/>
       <c r="J32" s="4"/>
       <c r="K32" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="33" spans="1:11">
       <c r="A33" s="4"/>
       <c r="B33" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="C33" s="4"/>
       <c r="D33" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E33" s="4"/>
@@ -2003,19 +1991,19 @@
       <c r="I33" s="4"/>
       <c r="J33" s="4"/>
       <c r="K33" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="34" spans="1:11">
       <c r="A34" s="4"/>
       <c r="B34" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="C34" s="4"/>
       <c r="D34" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E34" s="4"/>
@@ -2025,19 +2013,19 @@
       <c r="I34" s="4"/>
       <c r="J34" s="4"/>
       <c r="K34" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="35" spans="1:11">
       <c r="A35" s="4"/>
       <c r="B35" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="C35" s="4"/>
       <c r="D35" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E35" s="4"/>
@@ -2047,19 +2035,19 @@
       <c r="I35" s="4"/>
       <c r="J35" s="4"/>
       <c r="K35" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="36" spans="1:11">
       <c r="A36" s="4"/>
       <c r="B36" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="C36" s="4"/>
       <c r="D36" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E36" s="4"/>
@@ -2069,19 +2057,19 @@
       <c r="I36" s="4"/>
       <c r="J36" s="4"/>
       <c r="K36" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="37" spans="1:11">
       <c r="A37" s="4"/>
       <c r="B37" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="C37" s="4"/>
       <c r="D37" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E37" s="4"/>
@@ -2091,19 +2079,19 @@
       <c r="I37" s="4"/>
       <c r="J37" s="4"/>
       <c r="K37" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="38" spans="1:11">
       <c r="A38" s="4"/>
       <c r="B38" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="C38" s="4"/>
       <c r="D38" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E38" s="4"/>
@@ -2113,19 +2101,19 @@
       <c r="I38" s="4"/>
       <c r="J38" s="4"/>
       <c r="K38" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="39" spans="1:11">
       <c r="A39" s="4"/>
       <c r="B39" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="C39" s="4"/>
       <c r="D39" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E39" s="4"/>
@@ -2135,19 +2123,19 @@
       <c r="I39" s="4"/>
       <c r="J39" s="4"/>
       <c r="K39" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="40" spans="1:11">
       <c r="A40" s="4"/>
       <c r="B40" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="C40" s="4"/>
       <c r="D40" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E40" s="4"/>
@@ -2157,19 +2145,19 @@
       <c r="I40" s="4"/>
       <c r="J40" s="4"/>
       <c r="K40" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="41" spans="1:11">
       <c r="A41" s="4"/>
       <c r="B41" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="C41" s="4"/>
       <c r="D41" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E41" s="4"/>
@@ -2179,19 +2167,19 @@
       <c r="I41" s="4"/>
       <c r="J41" s="4"/>
       <c r="K41" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="42" spans="1:11">
       <c r="A42" s="4"/>
       <c r="B42" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="C42" s="4"/>
       <c r="D42" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E42" s="4"/>
@@ -2201,19 +2189,19 @@
       <c r="I42" s="4"/>
       <c r="J42" s="4"/>
       <c r="K42" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="43" spans="1:11">
       <c r="A43" s="4"/>
       <c r="B43" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="C43" s="4"/>
       <c r="D43" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E43" s="4"/>
@@ -2223,19 +2211,19 @@
       <c r="I43" s="4"/>
       <c r="J43" s="4"/>
       <c r="K43" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="44" spans="1:11">
       <c r="A44" s="4"/>
       <c r="B44" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="C44" s="4"/>
       <c r="D44" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E44" s="4"/>
@@ -2245,19 +2233,19 @@
       <c r="I44" s="4"/>
       <c r="J44" s="4"/>
       <c r="K44" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="45" spans="1:11">
       <c r="A45" s="4"/>
       <c r="B45" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="C45" s="4"/>
       <c r="D45" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E45" s="4"/>
@@ -2267,19 +2255,19 @@
       <c r="I45" s="4"/>
       <c r="J45" s="4"/>
       <c r="K45" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="46" spans="1:11">
       <c r="A46" s="4"/>
       <c r="B46" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="C46" s="4"/>
       <c r="D46" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E46" s="4"/>
@@ -2289,19 +2277,19 @@
       <c r="I46" s="4"/>
       <c r="J46" s="4"/>
       <c r="K46" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="47" spans="1:11">
       <c r="A47" s="4"/>
       <c r="B47" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="C47" s="4"/>
       <c r="D47" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E47" s="4"/>
@@ -2311,19 +2299,19 @@
       <c r="I47" s="4"/>
       <c r="J47" s="4"/>
       <c r="K47" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="48" spans="1:11">
       <c r="A48" s="4"/>
       <c r="B48" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="C48" s="4"/>
       <c r="D48" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E48" s="4"/>
@@ -2333,19 +2321,19 @@
       <c r="I48" s="4"/>
       <c r="J48" s="4"/>
       <c r="K48" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="49" spans="1:11">
       <c r="A49" s="4"/>
       <c r="B49" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="C49" s="4"/>
       <c r="D49" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E49" s="4"/>
@@ -2355,19 +2343,19 @@
       <c r="I49" s="4"/>
       <c r="J49" s="4"/>
       <c r="K49" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="50" spans="1:11">
       <c r="A50" s="4"/>
       <c r="B50" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="C50" s="4"/>
       <c r="D50" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E50" s="4"/>
@@ -2377,19 +2365,19 @@
       <c r="I50" s="4"/>
       <c r="J50" s="4"/>
       <c r="K50" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="51" spans="1:11">
       <c r="A51" s="4"/>
       <c r="B51" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="C51" s="4"/>
       <c r="D51" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E51" s="4"/>
@@ -2399,19 +2387,19 @@
       <c r="I51" s="4"/>
       <c r="J51" s="4"/>
       <c r="K51" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="52" spans="1:11">
       <c r="A52" s="4"/>
       <c r="B52" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="C52" s="4"/>
       <c r="D52" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="D52:D115" si="5">IF(C52&lt;&gt;"",TRUE,"")</f>
         <v/>
       </c>
       <c r="E52" s="4"/>
@@ -2421,19 +2409,19 @@
       <c r="I52" s="4"/>
       <c r="J52" s="4"/>
       <c r="K52" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="K52:K115" si="6">IF(B52&lt;&gt;"",B52,"")</f>
         <v/>
       </c>
     </row>
     <row r="53" spans="1:11">
       <c r="A53" s="4"/>
       <c r="B53" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="B53:B116" si="7">IF(C53&lt;&gt;"",_xlfn.CONCAT(C53,"Category"),"")</f>
         <v/>
       </c>
       <c r="C53" s="4"/>
       <c r="D53" s="4" t="str">
-        <f t="shared" ref="D53:D116" si="5">IF(C53&lt;&gt;"",TRUE,"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="E53" s="4"/>
@@ -2443,14 +2431,14 @@
       <c r="I53" s="4"/>
       <c r="J53" s="4"/>
       <c r="K53" s="4" t="str">
-        <f t="shared" ref="K53:K116" si="6">IF(B53&lt;&gt;"",B53,"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="54" spans="1:11">
       <c r="A54" s="4"/>
       <c r="B54" s="4" t="str">
-        <f t="shared" ref="B54:B117" si="7">IF(C54&lt;&gt;"",_xlfn.CONCAT(C54,"Category"),"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="C54" s="4"/>
@@ -3819,7 +3807,7 @@
       </c>
       <c r="C116" s="4"/>
       <c r="D116" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="D116:D179" si="8">IF(C116&lt;&gt;"",TRUE,"")</f>
         <v/>
       </c>
       <c r="E116" s="4"/>
@@ -3829,19 +3817,19 @@
       <c r="I116" s="4"/>
       <c r="J116" s="4"/>
       <c r="K116" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="K116:K179" si="9">IF(B116&lt;&gt;"",B116,"")</f>
         <v/>
       </c>
     </row>
     <row r="117" spans="1:11">
       <c r="A117" s="4"/>
       <c r="B117" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="B117:B180" si="10">IF(C117&lt;&gt;"",_xlfn.CONCAT(C117,"Category"),"")</f>
         <v/>
       </c>
       <c r="C117" s="4"/>
       <c r="D117" s="4" t="str">
-        <f t="shared" ref="D117:D180" si="8">IF(C117&lt;&gt;"",TRUE,"")</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="E117" s="4"/>
@@ -3851,14 +3839,14 @@
       <c r="I117" s="4"/>
       <c r="J117" s="4"/>
       <c r="K117" s="4" t="str">
-        <f t="shared" ref="K117:K180" si="9">IF(B117&lt;&gt;"",B117,"")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="118" spans="1:11">
       <c r="A118" s="4"/>
       <c r="B118" s="4" t="str">
-        <f t="shared" ref="B118:B181" si="10">IF(C118&lt;&gt;"",_xlfn.CONCAT(C118,"Category"),"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="C118" s="4"/>
@@ -5227,7 +5215,7 @@
       </c>
       <c r="C180" s="4"/>
       <c r="D180" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="D180:D243" si="11">IF(C180&lt;&gt;"",TRUE,"")</f>
         <v/>
       </c>
       <c r="E180" s="4"/>
@@ -5237,19 +5225,19 @@
       <c r="I180" s="4"/>
       <c r="J180" s="4"/>
       <c r="K180" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="K180:K243" si="12">IF(B180&lt;&gt;"",B180,"")</f>
         <v/>
       </c>
     </row>
     <row r="181" spans="1:11">
       <c r="A181" s="4"/>
       <c r="B181" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="B181:B244" si="13">IF(C181&lt;&gt;"",_xlfn.CONCAT(C181,"Category"),"")</f>
         <v/>
       </c>
       <c r="C181" s="4"/>
       <c r="D181" s="4" t="str">
-        <f t="shared" ref="D181:D244" si="11">IF(C181&lt;&gt;"",TRUE,"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="E181" s="4"/>
@@ -5259,14 +5247,14 @@
       <c r="I181" s="4"/>
       <c r="J181" s="4"/>
       <c r="K181" s="4" t="str">
-        <f t="shared" ref="K181:K244" si="12">IF(B181&lt;&gt;"",B181,"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="182" spans="1:11">
       <c r="A182" s="4"/>
       <c r="B182" s="4" t="str">
-        <f t="shared" ref="B182:B245" si="13">IF(C182&lt;&gt;"",_xlfn.CONCAT(C182,"Category"),"")</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="C182" s="4"/>
@@ -6635,7 +6623,7 @@
       </c>
       <c r="C244" s="4"/>
       <c r="D244" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="D244:D307" si="14">IF(C244&lt;&gt;"",TRUE,"")</f>
         <v/>
       </c>
       <c r="E244" s="4"/>
@@ -6645,19 +6633,19 @@
       <c r="I244" s="4"/>
       <c r="J244" s="4"/>
       <c r="K244" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" ref="K244:K307" si="15">IF(B244&lt;&gt;"",B244,"")</f>
         <v/>
       </c>
     </row>
     <row r="245" spans="1:11">
       <c r="A245" s="4"/>
       <c r="B245" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" ref="B245:B308" si="16">IF(C245&lt;&gt;"",_xlfn.CONCAT(C245,"Category"),"")</f>
         <v/>
       </c>
       <c r="C245" s="4"/>
       <c r="D245" s="4" t="str">
-        <f t="shared" ref="D245:D308" si="14">IF(C245&lt;&gt;"",TRUE,"")</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="E245" s="4"/>
@@ -6667,14 +6655,14 @@
       <c r="I245" s="4"/>
       <c r="J245" s="4"/>
       <c r="K245" s="4" t="str">
-        <f t="shared" ref="K245:K308" si="15">IF(B245&lt;&gt;"",B245,"")</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
     <row r="246" spans="1:11">
       <c r="A246" s="4"/>
       <c r="B246" s="4" t="str">
-        <f t="shared" ref="B246:B309" si="16">IF(C246&lt;&gt;"",_xlfn.CONCAT(C246,"Category"),"")</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="C246" s="4"/>
@@ -8043,7 +8031,7 @@
       </c>
       <c r="C308" s="4"/>
       <c r="D308" s="4" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" ref="D308:D371" si="17">IF(C308&lt;&gt;"",TRUE,"")</f>
         <v/>
       </c>
       <c r="E308" s="4"/>
@@ -8053,19 +8041,19 @@
       <c r="I308" s="4"/>
       <c r="J308" s="4"/>
       <c r="K308" s="4" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" ref="K308:K371" si="18">IF(B308&lt;&gt;"",B308,"")</f>
         <v/>
       </c>
     </row>
     <row r="309" spans="1:11">
       <c r="A309" s="4"/>
       <c r="B309" s="4" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" ref="B309:B372" si="19">IF(C309&lt;&gt;"",_xlfn.CONCAT(C309,"Category"),"")</f>
         <v/>
       </c>
       <c r="C309" s="4"/>
       <c r="D309" s="4" t="str">
-        <f t="shared" ref="D309:D372" si="17">IF(C309&lt;&gt;"",TRUE,"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="E309" s="4"/>
@@ -8075,14 +8063,14 @@
       <c r="I309" s="4"/>
       <c r="J309" s="4"/>
       <c r="K309" s="4" t="str">
-        <f t="shared" ref="K309:K372" si="18">IF(B309&lt;&gt;"",B309,"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
     <row r="310" spans="1:11">
       <c r="A310" s="4"/>
       <c r="B310" s="4" t="str">
-        <f t="shared" ref="B310:B373" si="19">IF(C310&lt;&gt;"",_xlfn.CONCAT(C310,"Category"),"")</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="C310" s="4"/>
@@ -9451,7 +9439,7 @@
       </c>
       <c r="C372" s="4"/>
       <c r="D372" s="4" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" ref="D372:D435" si="20">IF(C372&lt;&gt;"",TRUE,"")</f>
         <v/>
       </c>
       <c r="E372" s="4"/>
@@ -9461,19 +9449,19 @@
       <c r="I372" s="4"/>
       <c r="J372" s="4"/>
       <c r="K372" s="4" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" ref="K372:K435" si="21">IF(B372&lt;&gt;"",B372,"")</f>
         <v/>
       </c>
     </row>
     <row r="373" spans="1:11">
       <c r="A373" s="4"/>
       <c r="B373" s="4" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" ref="B373:B436" si="22">IF(C373&lt;&gt;"",_xlfn.CONCAT(C373,"Category"),"")</f>
         <v/>
       </c>
       <c r="C373" s="4"/>
       <c r="D373" s="4" t="str">
-        <f t="shared" ref="D373:D436" si="20">IF(C373&lt;&gt;"",TRUE,"")</f>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="E373" s="4"/>
@@ -9483,14 +9471,14 @@
       <c r="I373" s="4"/>
       <c r="J373" s="4"/>
       <c r="K373" s="4" t="str">
-        <f t="shared" ref="K373:K436" si="21">IF(B373&lt;&gt;"",B373,"")</f>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="374" spans="1:11">
       <c r="A374" s="4"/>
       <c r="B374" s="4" t="str">
-        <f t="shared" ref="B374:B437" si="22">IF(C374&lt;&gt;"",_xlfn.CONCAT(C374,"Category"),"")</f>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="C374" s="4"/>
@@ -10859,7 +10847,7 @@
       </c>
       <c r="C436" s="4"/>
       <c r="D436" s="4" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" ref="D436:D499" si="23">IF(C436&lt;&gt;"",TRUE,"")</f>
         <v/>
       </c>
       <c r="E436" s="4"/>
@@ -10869,19 +10857,19 @@
       <c r="I436" s="4"/>
       <c r="J436" s="4"/>
       <c r="K436" s="4" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" ref="K436:K499" si="24">IF(B436&lt;&gt;"",B436,"")</f>
         <v/>
       </c>
     </row>
     <row r="437" spans="1:11">
       <c r="A437" s="4"/>
       <c r="B437" s="4" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" ref="B437:B500" si="25">IF(C437&lt;&gt;"",_xlfn.CONCAT(C437,"Category"),"")</f>
         <v/>
       </c>
       <c r="C437" s="4"/>
       <c r="D437" s="4" t="str">
-        <f t="shared" ref="D437:D500" si="23">IF(C437&lt;&gt;"",TRUE,"")</f>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="E437" s="4"/>
@@ -10891,14 +10879,14 @@
       <c r="I437" s="4"/>
       <c r="J437" s="4"/>
       <c r="K437" s="4" t="str">
-        <f t="shared" ref="K437:K500" si="24">IF(B437&lt;&gt;"",B437,"")</f>
+        <f t="shared" si="24"/>
         <v/>
       </c>
     </row>
     <row r="438" spans="1:11">
       <c r="A438" s="4"/>
       <c r="B438" s="4" t="str">
-        <f t="shared" ref="B438:B501" si="25">IF(C438&lt;&gt;"",_xlfn.CONCAT(C438,"Category"),"")</f>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="C438" s="4"/>
@@ -12267,7 +12255,7 @@
       </c>
       <c r="C500" s="4"/>
       <c r="D500" s="4" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" ref="D500:D563" si="26">IF(C500&lt;&gt;"",TRUE,"")</f>
         <v/>
       </c>
       <c r="E500" s="4"/>
@@ -12277,19 +12265,19 @@
       <c r="I500" s="4"/>
       <c r="J500" s="4"/>
       <c r="K500" s="4" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" ref="K500:K563" si="27">IF(B500&lt;&gt;"",B500,"")</f>
         <v/>
       </c>
     </row>
     <row r="501" spans="1:11">
       <c r="A501" s="4"/>
       <c r="B501" s="4" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" ref="B501:B564" si="28">IF(C501&lt;&gt;"",_xlfn.CONCAT(C501,"Category"),"")</f>
         <v/>
       </c>
       <c r="C501" s="4"/>
       <c r="D501" s="4" t="str">
-        <f t="shared" ref="D501:D564" si="26">IF(C501&lt;&gt;"",TRUE,"")</f>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="E501" s="4"/>
@@ -12299,14 +12287,14 @@
       <c r="I501" s="4"/>
       <c r="J501" s="4"/>
       <c r="K501" s="4" t="str">
-        <f t="shared" ref="K501:K564" si="27">IF(B501&lt;&gt;"",B501,"")</f>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
     <row r="502" spans="1:11">
       <c r="A502" s="4"/>
       <c r="B502" s="4" t="str">
-        <f t="shared" ref="B502:B565" si="28">IF(C502&lt;&gt;"",_xlfn.CONCAT(C502,"Category"),"")</f>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="C502" s="4"/>
@@ -13675,7 +13663,7 @@
       </c>
       <c r="C564" s="4"/>
       <c r="D564" s="4" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" ref="D564:D627" si="29">IF(C564&lt;&gt;"",TRUE,"")</f>
         <v/>
       </c>
       <c r="E564" s="4"/>
@@ -13685,19 +13673,19 @@
       <c r="I564" s="4"/>
       <c r="J564" s="4"/>
       <c r="K564" s="4" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" ref="K564:K627" si="30">IF(B564&lt;&gt;"",B564,"")</f>
         <v/>
       </c>
     </row>
     <row r="565" spans="1:11">
       <c r="A565" s="4"/>
       <c r="B565" s="4" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" ref="B565:B628" si="31">IF(C565&lt;&gt;"",_xlfn.CONCAT(C565,"Category"),"")</f>
         <v/>
       </c>
       <c r="C565" s="4"/>
       <c r="D565" s="4" t="str">
-        <f t="shared" ref="D565:D628" si="29">IF(C565&lt;&gt;"",TRUE,"")</f>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="E565" s="4"/>
@@ -13707,14 +13695,14 @@
       <c r="I565" s="4"/>
       <c r="J565" s="4"/>
       <c r="K565" s="4" t="str">
-        <f t="shared" ref="K565:K628" si="30">IF(B565&lt;&gt;"",B565,"")</f>
+        <f t="shared" si="30"/>
         <v/>
       </c>
     </row>
     <row r="566" spans="1:11">
       <c r="A566" s="4"/>
       <c r="B566" s="4" t="str">
-        <f t="shared" ref="B566:B629" si="31">IF(C566&lt;&gt;"",_xlfn.CONCAT(C566,"Category"),"")</f>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="C566" s="4"/>
@@ -15083,7 +15071,7 @@
       </c>
       <c r="C628" s="4"/>
       <c r="D628" s="4" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" ref="D628:D691" si="32">IF(C628&lt;&gt;"",TRUE,"")</f>
         <v/>
       </c>
       <c r="E628" s="4"/>
@@ -15093,19 +15081,19 @@
       <c r="I628" s="4"/>
       <c r="J628" s="4"/>
       <c r="K628" s="4" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" ref="K628:K691" si="33">IF(B628&lt;&gt;"",B628,"")</f>
         <v/>
       </c>
     </row>
     <row r="629" spans="1:11">
       <c r="A629" s="4"/>
       <c r="B629" s="4" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" ref="B629:B692" si="34">IF(C629&lt;&gt;"",_xlfn.CONCAT(C629,"Category"),"")</f>
         <v/>
       </c>
       <c r="C629" s="4"/>
       <c r="D629" s="4" t="str">
-        <f t="shared" ref="D629:D692" si="32">IF(C629&lt;&gt;"",TRUE,"")</f>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="E629" s="4"/>
@@ -15115,14 +15103,14 @@
       <c r="I629" s="4"/>
       <c r="J629" s="4"/>
       <c r="K629" s="4" t="str">
-        <f t="shared" ref="K629:K692" si="33">IF(B629&lt;&gt;"",B629,"")</f>
+        <f t="shared" si="33"/>
         <v/>
       </c>
     </row>
     <row r="630" spans="1:11">
       <c r="A630" s="4"/>
       <c r="B630" s="4" t="str">
-        <f t="shared" ref="B630:B693" si="34">IF(C630&lt;&gt;"",_xlfn.CONCAT(C630,"Category"),"")</f>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="C630" s="4"/>
@@ -16491,7 +16479,7 @@
       </c>
       <c r="C692" s="4"/>
       <c r="D692" s="4" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" ref="D692:D755" si="35">IF(C692&lt;&gt;"",TRUE,"")</f>
         <v/>
       </c>
       <c r="E692" s="4"/>
@@ -16501,19 +16489,19 @@
       <c r="I692" s="4"/>
       <c r="J692" s="4"/>
       <c r="K692" s="4" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" ref="K692:K755" si="36">IF(B692&lt;&gt;"",B692,"")</f>
         <v/>
       </c>
     </row>
     <row r="693" spans="1:11">
       <c r="A693" s="4"/>
       <c r="B693" s="4" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" ref="B693:B756" si="37">IF(C693&lt;&gt;"",_xlfn.CONCAT(C693,"Category"),"")</f>
         <v/>
       </c>
       <c r="C693" s="4"/>
       <c r="D693" s="4" t="str">
-        <f t="shared" ref="D693:D756" si="35">IF(C693&lt;&gt;"",TRUE,"")</f>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="E693" s="4"/>
@@ -16523,14 +16511,14 @@
       <c r="I693" s="4"/>
       <c r="J693" s="4"/>
       <c r="K693" s="4" t="str">
-        <f t="shared" ref="K693:K756" si="36">IF(B693&lt;&gt;"",B693,"")</f>
+        <f t="shared" si="36"/>
         <v/>
       </c>
     </row>
     <row r="694" spans="1:11">
       <c r="A694" s="4"/>
       <c r="B694" s="4" t="str">
-        <f t="shared" ref="B694:B757" si="37">IF(C694&lt;&gt;"",_xlfn.CONCAT(C694,"Category"),"")</f>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="C694" s="4"/>
@@ -17899,7 +17887,7 @@
       </c>
       <c r="C756" s="4"/>
       <c r="D756" s="4" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" ref="D756:D819" si="38">IF(C756&lt;&gt;"",TRUE,"")</f>
         <v/>
       </c>
       <c r="E756" s="4"/>
@@ -17909,19 +17897,19 @@
       <c r="I756" s="4"/>
       <c r="J756" s="4"/>
       <c r="K756" s="4" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" ref="K756:K819" si="39">IF(B756&lt;&gt;"",B756,"")</f>
         <v/>
       </c>
     </row>
     <row r="757" spans="1:11">
       <c r="A757" s="4"/>
       <c r="B757" s="4" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" ref="B757:B820" si="40">IF(C757&lt;&gt;"",_xlfn.CONCAT(C757,"Category"),"")</f>
         <v/>
       </c>
       <c r="C757" s="4"/>
       <c r="D757" s="4" t="str">
-        <f t="shared" ref="D757:D820" si="38">IF(C757&lt;&gt;"",TRUE,"")</f>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="E757" s="4"/>
@@ -17931,14 +17919,14 @@
       <c r="I757" s="4"/>
       <c r="J757" s="4"/>
       <c r="K757" s="4" t="str">
-        <f t="shared" ref="K757:K820" si="39">IF(B757&lt;&gt;"",B757,"")</f>
+        <f t="shared" si="39"/>
         <v/>
       </c>
     </row>
     <row r="758" spans="1:11">
       <c r="A758" s="4"/>
       <c r="B758" s="4" t="str">
-        <f t="shared" ref="B758:B821" si="40">IF(C758&lt;&gt;"",_xlfn.CONCAT(C758,"Category"),"")</f>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="C758" s="4"/>
@@ -19307,7 +19295,7 @@
       </c>
       <c r="C820" s="4"/>
       <c r="D820" s="4" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" ref="D820:D883" si="41">IF(C820&lt;&gt;"",TRUE,"")</f>
         <v/>
       </c>
       <c r="E820" s="4"/>
@@ -19317,19 +19305,19 @@
       <c r="I820" s="4"/>
       <c r="J820" s="4"/>
       <c r="K820" s="4" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" ref="K820:K883" si="42">IF(B820&lt;&gt;"",B820,"")</f>
         <v/>
       </c>
     </row>
     <row r="821" spans="1:11">
       <c r="A821" s="4"/>
       <c r="B821" s="4" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" ref="B821:B884" si="43">IF(C821&lt;&gt;"",_xlfn.CONCAT(C821,"Category"),"")</f>
         <v/>
       </c>
       <c r="C821" s="4"/>
       <c r="D821" s="4" t="str">
-        <f t="shared" ref="D821:D884" si="41">IF(C821&lt;&gt;"",TRUE,"")</f>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="E821" s="4"/>
@@ -19339,14 +19327,14 @@
       <c r="I821" s="4"/>
       <c r="J821" s="4"/>
       <c r="K821" s="4" t="str">
-        <f t="shared" ref="K821:K884" si="42">IF(B821&lt;&gt;"",B821,"")</f>
+        <f t="shared" si="42"/>
         <v/>
       </c>
     </row>
     <row r="822" spans="1:11">
       <c r="A822" s="4"/>
       <c r="B822" s="4" t="str">
-        <f t="shared" ref="B822:B885" si="43">IF(C822&lt;&gt;"",_xlfn.CONCAT(C822,"Category"),"")</f>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="C822" s="4"/>
@@ -20715,7 +20703,7 @@
       </c>
       <c r="C884" s="4"/>
       <c r="D884" s="4" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" ref="D884:D947" si="44">IF(C884&lt;&gt;"",TRUE,"")</f>
         <v/>
       </c>
       <c r="E884" s="4"/>
@@ -20725,19 +20713,19 @@
       <c r="I884" s="4"/>
       <c r="J884" s="4"/>
       <c r="K884" s="4" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" ref="K884:K947" si="45">IF(B884&lt;&gt;"",B884,"")</f>
         <v/>
       </c>
     </row>
     <row r="885" spans="1:11">
       <c r="A885" s="4"/>
       <c r="B885" s="4" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" ref="B885:B948" si="46">IF(C885&lt;&gt;"",_xlfn.CONCAT(C885,"Category"),"")</f>
         <v/>
       </c>
       <c r="C885" s="4"/>
       <c r="D885" s="4" t="str">
-        <f t="shared" ref="D885:D948" si="44">IF(C885&lt;&gt;"",TRUE,"")</f>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="E885" s="4"/>
@@ -20747,14 +20735,14 @@
       <c r="I885" s="4"/>
       <c r="J885" s="4"/>
       <c r="K885" s="4" t="str">
-        <f t="shared" ref="K885:K948" si="45">IF(B885&lt;&gt;"",B885,"")</f>
+        <f t="shared" si="45"/>
         <v/>
       </c>
     </row>
     <row r="886" spans="1:11">
       <c r="A886" s="4"/>
       <c r="B886" s="4" t="str">
-        <f t="shared" ref="B886:B949" si="46">IF(C886&lt;&gt;"",_xlfn.CONCAT(C886,"Category"),"")</f>
+        <f t="shared" si="46"/>
         <v/>
       </c>
       <c r="C886" s="4"/>
@@ -22123,7 +22111,7 @@
       </c>
       <c r="C948" s="4"/>
       <c r="D948" s="4" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" ref="D948:D983" si="47">IF(C948&lt;&gt;"",TRUE,"")</f>
         <v/>
       </c>
       <c r="E948" s="4"/>
@@ -22133,19 +22121,19 @@
       <c r="I948" s="4"/>
       <c r="J948" s="4"/>
       <c r="K948" s="4" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" ref="K948:K983" si="48">IF(B948&lt;&gt;"",B948,"")</f>
         <v/>
       </c>
     </row>
     <row r="949" spans="1:11">
       <c r="A949" s="4"/>
       <c r="B949" s="4" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" ref="B949:B983" si="49">IF(C949&lt;&gt;"",_xlfn.CONCAT(C949,"Category"),"")</f>
         <v/>
       </c>
       <c r="C949" s="4"/>
       <c r="D949" s="4" t="str">
-        <f t="shared" ref="D949:D984" si="47">IF(C949&lt;&gt;"",TRUE,"")</f>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="E949" s="4"/>
@@ -22155,14 +22143,14 @@
       <c r="I949" s="4"/>
       <c r="J949" s="4"/>
       <c r="K949" s="4" t="str">
-        <f t="shared" ref="K949:K984" si="48">IF(B949&lt;&gt;"",B949,"")</f>
+        <f t="shared" si="48"/>
         <v/>
       </c>
     </row>
     <row r="950" spans="1:11">
       <c r="A950" s="4"/>
       <c r="B950" s="4" t="str">
-        <f t="shared" ref="B950:B984" si="49">IF(C950&lt;&gt;"",_xlfn.CONCAT(C950,"Category"),"")</f>
+        <f t="shared" si="49"/>
         <v/>
       </c>
       <c r="C950" s="4"/>
@@ -22903,28 +22891,6 @@
       <c r="I983" s="4"/>
       <c r="J983" s="4"/>
       <c r="K983" s="4" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-    </row>
-    <row r="984" spans="1:11">
-      <c r="A984" s="4"/>
-      <c r="B984" s="4" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="C984" s="4"/>
-      <c r="D984" s="4" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="E984" s="4"/>
-      <c r="F984" s="4"/>
-      <c r="G984" s="4"/>
-      <c r="H984" s="4"/>
-      <c r="I984" s="4"/>
-      <c r="J984" s="4"/>
-      <c r="K984" s="4" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
